--- a/public/template/tpl1.xlsx
+++ b/public/template/tpl1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDF6C4C-299C-4595-94C5-E1AAD6B901F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,17 +17,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,12 +144,20 @@
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,11 +276,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -317,7 +330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,9 +362,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,6 +414,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,23 +607,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.1" customHeight="1">
+    <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -583,276 +632,336 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.1" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="8">
         <v>-10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E5" s="8">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="8">
         <v>-10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E6" s="8">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="8">
         <v>-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E7" s="8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E8" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E9" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E10" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="8">
         <v>-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E12" s="8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="8">
         <v>-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E13" s="8">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="8">
         <v>-10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E14" s="8">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E15" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E16" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E17" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E18" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.1" customHeight="1">
+      <c r="E19" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="8">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="8">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
@@ -864,12 +973,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -878,12 +987,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/tpl1.xlsx
+++ b/public/template/tpl1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDF6C4C-299C-4595-94C5-E1AAD6B901F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDFD817-E20D-47A7-9A70-F65B632C063F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,34 +25,6 @@
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分制管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>有积分管理权限的管理者，每月完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张以上奖扣单的开具</t>
-    </r>
   </si>
   <si>
     <t>积分录入，每1张</t>
@@ -84,44 +56,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>积极组织或完成部门积分制管理、会议有记录，并上交者</t>
-  </si>
-  <si>
-    <t>每新增一项点对点奖（扣）项，并有考核细则</t>
-  </si>
-  <si>
-    <t>如发现管理人员乱扣分、错扣分，每次扣经办人员</t>
-  </si>
-  <si>
-    <t>录入数据不及时</t>
-  </si>
-  <si>
-    <t>录入数据不准确或有弄虚作假行为者</t>
-  </si>
-  <si>
-    <t>录入后数据未上传，造成数据丢失的</t>
-  </si>
-  <si>
     <t>考勤</t>
-  </si>
-  <si>
-    <t>当日出勤无迟到；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日出勤无早退；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日出勤有迟到；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日出勤有早退；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟到、早退1-10分钟</t>
   </si>
   <si>
     <t>迟到、早退11-20分钟</t>
@@ -151,6 +86,35 @@
   <si>
     <t>GL</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有积分管理权限的管理者，每月完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张以上奖励单的开具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -608,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -623,7 +587,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -632,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -643,10 +607,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -660,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -677,10 +641,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -691,279 +655,92 @@
     </row>
     <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="8">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="E5" s="8">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="8">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="E6" s="8">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="8">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="8">
-        <v>-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="8">
-        <v>15</v>
+        <v>-100</v>
       </c>
       <c r="E9" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8">
-        <v>40</v>
-      </c>
-      <c r="E10" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8">
-        <v>-2</v>
-      </c>
-      <c r="E12" s="8">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8">
-        <v>-5</v>
-      </c>
-      <c r="E13" s="8">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8">
-        <v>-10</v>
-      </c>
-      <c r="E14" s="8">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="8">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="8">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8">
-        <v>40</v>
-      </c>
-      <c r="E19" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8">
         <v>-100</v>
       </c>
-      <c r="E20" s="8">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
